--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14\Desktop\Telegram_Bot_Copp_Aiogran\CollectedData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Имя</t>
   </si>
@@ -54,6 +49,9 @@
     <t>Диса</t>
   </si>
   <si>
+    <t>Тимур</t>
+  </si>
+  <si>
     <t>Николаенко</t>
   </si>
   <si>
@@ -66,7 +64,10 @@
     <t>Дисович</t>
   </si>
   <si>
-    <t>89001256478</t>
+    <t>Мусаев</t>
+  </si>
+  <si>
+    <t>89001083249</t>
   </si>
   <si>
     <t>denis.nikolaenko.2004@mail.ru</t>
@@ -81,7 +82,10 @@
     <t>disa@mail.ru</t>
   </si>
   <si>
-    <t>65</t>
+    <t>musaevsalam@mail.ru</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -103,13 +107,16 @@
   </si>
   <si>
     <t>24.05.2023 09:54</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,25 +175,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,10 +257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,25 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,96 +496,119 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>89001083249</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>89001083247</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>89134053973</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>89001256478</v>
+      </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Имя</t>
   </si>
@@ -67,7 +67,10 @@
     <t>Мусаев</t>
   </si>
   <si>
-    <t>89001083249</t>
+    <t>Бессонович</t>
+  </si>
+  <si>
+    <t>89001074658</t>
   </si>
   <si>
     <t>denis.nikolaenko.2004@mail.ru</t>
@@ -85,7 +88,10 @@
     <t>musaevsalam@mail.ru</t>
   </si>
   <si>
-    <t>18</t>
+    <t>koluasik@mail.ru</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -97,6 +103,9 @@
     <t>Предпенсионеры</t>
   </si>
   <si>
+    <t>Все</t>
+  </si>
+  <si>
     <t>24.05.2023 09:25</t>
   </si>
   <si>
@@ -110,6 +119,12 @@
   </si>
   <si>
     <t>24.05.2023 10:15</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:56</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:58</t>
   </si>
 </sst>
 </file>
@@ -467,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +522,16 @@
         <v>89001083249</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -530,16 +545,16 @@
         <v>89001083247</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -553,16 +568,16 @@
         <v>89134053973</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -576,16 +591,16 @@
         <v>89001256478</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -595,20 +610,66 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>89001083249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>89001083249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Имя</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Тест</t>
+  </si>
+  <si>
     <t>Денис</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>Тимур</t>
   </si>
   <si>
+    <t>Тимурчик</t>
+  </si>
+  <si>
     <t>Николаенко</t>
   </si>
   <si>
@@ -70,7 +76,13 @@
     <t>Бессонович</t>
   </si>
   <si>
-    <t>89001074658</t>
+    <t>Мусаевчик</t>
+  </si>
+  <si>
+    <t>89001083247</t>
+  </si>
+  <si>
+    <t>test@mail.ru</t>
   </si>
   <si>
     <t>denis.nikolaenko.2004@mail.ru</t>
@@ -91,7 +103,10 @@
     <t>koluasik@mail.ru</t>
   </si>
   <si>
-    <t>19</t>
+    <t>musaev.timur@mail.ru</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -106,6 +121,9 @@
     <t>Все</t>
   </si>
   <si>
+    <t>24.05.2023 12:55</t>
+  </si>
+  <si>
     <t>24.05.2023 09:25</t>
   </si>
   <si>
@@ -125,6 +143,9 @@
   </si>
   <si>
     <t>24.05.2023 10:58</t>
+  </si>
+  <si>
+    <t>24.05.2023 11:57</t>
   </si>
 </sst>
 </file>
@@ -482,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,22 +537,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>89001083249</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -539,22 +560,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -562,22 +583,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>89134053973</v>
+        <v>89001083247</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -585,22 +606,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>89001256478</v>
+        <v>89134053973</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -608,45 +629,45 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>89001083249</v>
+        <v>89001256478</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>89001083249</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -654,22 +675,68 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>89001083249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>89001074658</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>89521656455</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>36</v>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Имя</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Ltybc</t>
+  </si>
+  <si>
     <t>Тест</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>Nikolaenko</t>
+  </si>
+  <si>
     <t>Николаенко</t>
   </si>
   <si>
@@ -79,7 +85,10 @@
     <t>Мусаевчик</t>
   </si>
   <si>
-    <t>89001083247</t>
+    <t>89001083249</t>
+  </si>
+  <si>
+    <t>kakzheyaustal@mail.ru</t>
   </si>
   <si>
     <t>test@mail.ru</t>
@@ -106,7 +115,7 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>25</t>
+    <t>19</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -119,6 +128,9 @@
   </si>
   <si>
     <t>Все</t>
+  </si>
+  <si>
+    <t>24.05.2023 13:16</t>
   </si>
   <si>
     <t>24.05.2023 12:55</t>
@@ -503,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +549,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,22 +572,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>89001083249</v>
+        <v>89001083247</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,22 +595,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,22 +618,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>89134053973</v>
+        <v>89001083247</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,22 +641,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>89134053973</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>89001256478</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,45 +664,45 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>89001083249</v>
+        <v>89001256478</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>89001083249</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,45 +710,68 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>89001074658</v>
+        <v>89001083249</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>89521656455</v>
+        <v>89001074658</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>89521656455</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Имя</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Диса</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
     <t>Ltybc</t>
   </si>
   <si>
@@ -52,15 +58,18 @@
     <t>Илья</t>
   </si>
   <si>
-    <t>Диса</t>
-  </si>
-  <si>
     <t>Тимур</t>
   </si>
   <si>
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>Никиса</t>
+  </si>
+  <si>
+    <t>Веренич</t>
+  </si>
+  <si>
     <t>Nikolaenko</t>
   </si>
   <si>
@@ -88,6 +97,12 @@
     <t>89001083249</t>
   </si>
   <si>
+    <t>denis@mail.ru</t>
+  </si>
+  <si>
+    <t>verenich_katerina@mail.ru</t>
+  </si>
+  <si>
     <t>kakzheyaustal@mail.ru</t>
   </si>
   <si>
@@ -115,7 +130,13 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>19</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Предпенсионеры</t>
+  </si>
+  <si>
+    <t>Все</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -124,10 +145,10 @@
     <t>Учащиеся общеобразоветельных учреждение 8-11 классы</t>
   </si>
   <si>
-    <t>Предпенсионеры</t>
-  </si>
-  <si>
-    <t>Все</t>
+    <t>25.05.2023 09:57</t>
+  </si>
+  <si>
+    <t>25.05.2023 09:16</t>
   </si>
   <si>
     <t>24.05.2023 13:16</t>
@@ -515,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,22 +570,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,22 +593,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>89001083247</v>
+        <v>89531701180</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,22 +616,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>89001083249</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,22 +639,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>89001083247</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,22 +662,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>89001083249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>89134053973</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,22 +685,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>89001083247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>89001256478</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,91 +708,137 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>89001083249</v>
+        <v>89134053973</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>89001083249</v>
+        <v>89001256478</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>89001074658</v>
+        <v>89001083249</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
+        <v>89001083249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>89001074658</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
         <v>89521656455</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Имя</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Абоба</t>
+  </si>
+  <si>
     <t>Диса</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>Абобович</t>
+  </si>
+  <si>
     <t>Никиса</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>89001083249</t>
   </si>
   <si>
+    <t>aboba@mail.ru</t>
+  </si>
+  <si>
     <t>denis@mail.ru</t>
   </si>
   <si>
@@ -130,7 +139,10 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>22</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Студенты</t>
   </si>
   <si>
     <t>Предпенсионеры</t>
@@ -139,10 +151,10 @@
     <t>Все</t>
   </si>
   <si>
-    <t>Студенты</t>
-  </si>
-  <si>
     <t>Учащиеся общеобразоветельных учреждение 8-11 классы</t>
+  </si>
+  <si>
+    <t>25.05.2023 12:46</t>
   </si>
   <si>
     <t>25.05.2023 09:57</t>
@@ -536,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,22 +582,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -593,22 +605,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>89531701180</v>
+        <v>89001083249</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -616,22 +628,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>89531701180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>89001083249</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -639,22 +651,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -662,22 +674,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>89001083249</v>
+        <v>89001083247</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -685,22 +697,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -708,91 +720,91 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>89134053973</v>
+        <v>89001083247</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>89001256478</v>
+        <v>89134053973</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>89001083249</v>
+        <v>89001256478</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>89001083249</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -800,45 +812,68 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>89001074658</v>
+        <v>89001083249</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>89521656455</v>
+        <v>89001074658</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>89521656455</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Имя</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Олег</t>
+  </si>
+  <si>
     <t>Абоба</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>Бажайкин</t>
+  </si>
+  <si>
     <t>Абобович</t>
   </si>
   <si>
@@ -100,7 +106,10 @@
     <t>Мусаевчик</t>
   </si>
   <si>
-    <t>89001083249</t>
+    <t>79521656455</t>
+  </si>
+  <si>
+    <t>bashay.oleg@mail.ru</t>
   </si>
   <si>
     <t>aboba@mail.ru</t>
@@ -139,7 +148,7 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>Учащиеся общеобразоветельных учреждение 8-11 классы</t>
+  </si>
+  <si>
+    <t>01.06.2023 11:31</t>
   </si>
   <si>
     <t>25.05.2023 12:46</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -605,22 +617,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>89001083249</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -628,22 +640,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>89531701180</v>
+        <v>89001083249</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -651,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>89001083249</v>
+        <v>89531701180</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -674,22 +686,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -697,22 +709,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>89001083249</v>
+        <v>89001083247</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -720,22 +732,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -743,91 +755,91 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>89134053973</v>
+        <v>89001083247</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>89001256478</v>
+        <v>89134053973</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>89001083249</v>
+        <v>89001256478</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>89001083249</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -835,45 +847,68 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>89001074658</v>
+        <v>89001083249</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>89521656455</v>
+        <v>89001074658</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>89521656455</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Имя</t>
   </si>
@@ -37,27 +37,30 @@
     <t>Время создания заявки</t>
   </si>
   <si>
+    <t>Диса</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>ПРоверка</t>
+  </si>
+  <si>
     <t>Олег</t>
   </si>
   <si>
     <t>Абоба</t>
   </si>
   <si>
-    <t>Диса</t>
-  </si>
-  <si>
     <t>Екатерина</t>
   </si>
   <si>
     <t>Ltybc</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
     <t>Коля</t>
   </si>
   <si>
@@ -70,6 +73,15 @@
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>Крылов</t>
+  </si>
+  <si>
+    <t>Николаенко</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
     <t>Бажайкин</t>
   </si>
   <si>
@@ -85,9 +97,6 @@
     <t>Nikolaenko</t>
   </si>
   <si>
-    <t>Николаенко</t>
-  </si>
-  <si>
     <t>Бессонов</t>
   </si>
   <si>
@@ -106,7 +115,19 @@
     <t>Мусаевчик</t>
   </si>
   <si>
-    <t>79521656455</t>
+    <t>89001083249</t>
+  </si>
+  <si>
+    <t>Krilow@mail.ru</t>
+  </si>
+  <si>
+    <t>Test@mail.ru</t>
+  </si>
+  <si>
+    <t>denis.nikolaenko.2004@mail.ru</t>
+  </si>
+  <si>
+    <t>Check@mail.ru</t>
   </si>
   <si>
     <t>bashay.oleg@mail.ru</t>
@@ -127,9 +148,6 @@
     <t>test@mail.ru</t>
   </si>
   <si>
-    <t>denis.nikolaenko.2004@mail.ru</t>
-  </si>
-  <si>
     <t>kolua.bessonov@mail.ru</t>
   </si>
   <si>
@@ -148,7 +166,7 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Студенты</t>
@@ -161,6 +179,18 @@
   </si>
   <si>
     <t>Учащиеся общеобразоветельных учреждение 8-11 классы</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:39</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:34</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:22</t>
+  </si>
+  <si>
+    <t>01.06.2023 13:06</t>
   </si>
   <si>
     <t>01.06.2023 11:31</t>
@@ -560,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,22 +624,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -617,22 +647,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>89001083249</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -646,16 +676,16 @@
         <v>89001083249</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -666,19 +696,19 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>89531701180</v>
+        <v>89001083249</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -689,19 +719,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>89001083249</v>
+        <v>79521656455</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -709,206 +739,298 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>89001083247</v>
+        <v>89001083249</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>89001083249</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>89001083247</v>
+        <v>89531701180</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>89134053973</v>
+        <v>89001083249</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>89001256478</v>
+        <v>89001083247</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>89001083249</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>89001083249</v>
+        <v>89001083247</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
-        <v>89001074658</v>
+        <v>89134053973</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
+        <v>89001256478</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>89001083249</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>89001083249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>89001074658</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
         <v>89521656455</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CollectedData/Collected_info_user.xlsx
+++ b/CollectedData/Collected_info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
   <si>
     <t>Имя</t>
   </si>
@@ -31,15 +31,45 @@
     <t>Возраст</t>
   </si>
   <si>
+    <t>Аудитория</t>
+  </si>
+  <si>
+    <t>Время создания заявки</t>
+  </si>
+  <si>
     <t>Целевая аудитория</t>
   </si>
   <si>
-    <t>Время создания заявки</t>
+    <t>фыв</t>
   </si>
   <si>
     <t>asd</t>
   </si>
   <si>
+    <t>asdn</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>ФЫ</t>
+  </si>
+  <si>
+    <t>kf</t>
+  </si>
+  <si>
+    <t>dff</t>
+  </si>
+  <si>
+    <t>Оглл</t>
+  </si>
+  <si>
     <t>sdf</t>
   </si>
   <si>
@@ -82,6 +112,27 @@
     <t>Тимурчик</t>
   </si>
   <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>Бессонов</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Фы</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>Шпве</t>
+  </si>
+  <si>
     <t>Крылов</t>
   </si>
   <si>
@@ -106,9 +157,6 @@
     <t>Nikolaenko</t>
   </si>
   <si>
-    <t>Бессонов</t>
-  </si>
-  <si>
     <t>Айзатулин</t>
   </si>
   <si>
@@ -124,12 +172,48 @@
     <t>Мусаевчик</t>
   </si>
   <si>
-    <t>89999992222</t>
+    <t>8999888222</t>
   </si>
   <si>
     <t>asd@mail.ru</t>
   </si>
   <si>
+    <t>dsa@mail.ru</t>
+  </si>
+  <si>
+    <t>qwer@Mail.ru</t>
+  </si>
+  <si>
+    <t>qwer@mail.ru</t>
+  </si>
+  <si>
+    <t>Koly.bessonov.2004@mail.ru</t>
+  </si>
+  <si>
+    <t>ASd@mail.ru</t>
+  </si>
+  <si>
+    <t>Asd@mail.ru</t>
+  </si>
+  <si>
+    <t>asd@Mail.ru</t>
+  </si>
+  <si>
+    <t>Kolwq@mail.ru</t>
+  </si>
+  <si>
+    <t>Koly@mail.ru</t>
+  </si>
+  <si>
+    <t>fl@mail.ru</t>
+  </si>
+  <si>
+    <t>dfg@mail.ru</t>
+  </si>
+  <si>
+    <t>Jim@mail.ru</t>
+  </si>
+  <si>
     <t>Krilow@mail.ru</t>
   </si>
   <si>
@@ -178,82 +262,181 @@
     <t>musaev.timur@mail.ru</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Предпенсионеры</t>
+  </si>
+  <si>
+    <t>Взрослое население/Работающий</t>
+  </si>
+  <si>
+    <t>Студенты</t>
   </si>
   <si>
     <t>Все</t>
   </si>
   <si>
+    <t>08.06.2023 12:10</t>
+  </si>
+  <si>
+    <t>08.06.2023 12:04</t>
+  </si>
+  <si>
+    <t>08.06.2023 12:00</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:59</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:55</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:52</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:50</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:39</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:37</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:35</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:27</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:26</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:24</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:22</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:18</t>
+  </si>
+  <si>
+    <t>08.06.2023 11:12</t>
+  </si>
+  <si>
+    <t>08.06.2023 10:59</t>
+  </si>
+  <si>
+    <t>08.06.2023 10:16</t>
+  </si>
+  <si>
+    <t>08.06.2023 10:12</t>
+  </si>
+  <si>
+    <t>08.06.2023 09:51</t>
+  </si>
+  <si>
+    <t>08.06.2023 09:50</t>
+  </si>
+  <si>
+    <t>08.06.2023 09:30</t>
+  </si>
+  <si>
+    <t>07.06.2023 13:04</t>
+  </si>
+  <si>
+    <t>07.06.2023 13:00</t>
+  </si>
+  <si>
+    <t>07.06.2023 12:33</t>
+  </si>
+  <si>
+    <t>07.06.2023 12:31</t>
+  </si>
+  <si>
+    <t>07.06.2023 11:40</t>
+  </si>
+  <si>
+    <t>07.06.2023 11:34</t>
+  </si>
+  <si>
+    <t>07.06.2023 11:16</t>
+  </si>
+  <si>
+    <t>07.06.2023 11:14</t>
+  </si>
+  <si>
+    <t>07.06.2023 11:07</t>
+  </si>
+  <si>
+    <t>06.06.2023 12:44</t>
+  </si>
+  <si>
+    <t>06.06.2023 12:39</t>
+  </si>
+  <si>
+    <t>06.06.2023 12:37</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:39</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:34</t>
+  </si>
+  <si>
+    <t>02.06.2023 09:22</t>
+  </si>
+  <si>
+    <t>01.06.2023 13:06</t>
+  </si>
+  <si>
+    <t>01.06.2023 11:31</t>
+  </si>
+  <si>
+    <t>25.05.2023 12:46</t>
+  </si>
+  <si>
+    <t>25.05.2023 09:57</t>
+  </si>
+  <si>
+    <t>25.05.2023 09:16</t>
+  </si>
+  <si>
+    <t>24.05.2023 13:16</t>
+  </si>
+  <si>
+    <t>24.05.2023 12:55</t>
+  </si>
+  <si>
+    <t>24.05.2023 09:25</t>
+  </si>
+  <si>
+    <t>24.05.2023 09:26</t>
+  </si>
+  <si>
+    <t>24.05.2023 09:43</t>
+  </si>
+  <si>
+    <t>24.05.2023 09:54</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:15</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:56</t>
+  </si>
+  <si>
+    <t>24.05.2023 10:58</t>
+  </si>
+  <si>
+    <t>24.05.2023 11:57</t>
+  </si>
+  <si>
+    <t>Работодатель</t>
+  </si>
+  <si>
     <t>Учащиеся общеобразоветельных учреждение 8-11 классы</t>
-  </si>
-  <si>
-    <t>Студенты</t>
-  </si>
-  <si>
-    <t>Предпенсионеры</t>
-  </si>
-  <si>
-    <t>06.06.2023 12:44</t>
-  </si>
-  <si>
-    <t>06.06.2023 12:39</t>
-  </si>
-  <si>
-    <t>06.06.2023 12:37</t>
-  </si>
-  <si>
-    <t>02.06.2023 09:39</t>
-  </si>
-  <si>
-    <t>02.06.2023 09:34</t>
-  </si>
-  <si>
-    <t>02.06.2023 09:22</t>
-  </si>
-  <si>
-    <t>01.06.2023 13:06</t>
-  </si>
-  <si>
-    <t>01.06.2023 11:31</t>
-  </si>
-  <si>
-    <t>25.05.2023 12:46</t>
-  </si>
-  <si>
-    <t>25.05.2023 09:57</t>
-  </si>
-  <si>
-    <t>25.05.2023 09:16</t>
-  </si>
-  <si>
-    <t>24.05.2023 13:16</t>
-  </si>
-  <si>
-    <t>24.05.2023 12:55</t>
-  </si>
-  <si>
-    <t>24.05.2023 09:25</t>
-  </si>
-  <si>
-    <t>24.05.2023 09:26</t>
-  </si>
-  <si>
-    <t>24.05.2023 09:43</t>
-  </si>
-  <si>
-    <t>24.05.2023 09:54</t>
-  </si>
-  <si>
-    <t>24.05.2023 10:15</t>
-  </si>
-  <si>
-    <t>24.05.2023 10:56</t>
-  </si>
-  <si>
-    <t>24.05.2023 10:58</t>
-  </si>
-  <si>
-    <t>24.05.2023 11:57</t>
   </si>
 </sst>
 </file>
@@ -611,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,488 +822,1204 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>8999888222</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>89093332222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>8999888222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8999888222</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>8999888222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>8999888222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>89998882222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8999888222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>8999888222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>8999888222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>8999888222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8999888222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>8999888222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>8999888222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>8999888222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>8999888222</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>8999888222</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>89998882222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>89998882222</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>89045766701</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>89001083249</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>89001083249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>89001083249</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>89001083249</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>79521656455</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>89001083249</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>89001083249</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>89531701180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>89001083249</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>89001083247</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>89001083249</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>89001083247</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>89134053973</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>89001256478</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>89001083249</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>89001083249</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
       <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21">
-        <v>89001074658</v>
+        <v>89998882222</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>89521656455</v>
+        <v>89998882222</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>89045766701</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>89998882222</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>89998882222</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>89998882222</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>89998882222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>89045766701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>89998882222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>765</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>89998882222</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>78889992222</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>78889992222</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>89999992222</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>89093332222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>89045766701</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>89001083249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>89001083249</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>89001083249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>89001083249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>79521656455</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>89001083249</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>89001083249</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>89531701180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>89001083249</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>89001083247</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>89001083249</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>89001083247</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>89134053973</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>89001256478</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>89001083249</v>
+      </c>
+      <c r="D50" t="s">
         <v>79</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>89001083249</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>89001074658</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>89521656455</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
